--- a/biology/Médecine/Louis_Émile_Piton/Louis_Émile_Piton.xlsx
+++ b/biology/Médecine/Louis_Émile_Piton/Louis_Émile_Piton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_%C3%89mile_Piton</t>
+          <t>Louis_Émile_Piton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Émile Piton, né le 7 janvier 1909 à Jumeaux, mort le 14 février 1945 (à 36 ans) au camp de concentration de Dachau, est un docteur en médecine et un docteur en sciences naturelles, paléontologue reconnu, coauteur de mémoire avec Nicolas Théobald.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_%C3%89mile_Piton</t>
+          <t>Louis_Émile_Piton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,54 +523,205 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Émile Piton est docteur en médecine et diplômé de la faculté de Toulouse, le 3 avril 1935 (à 26 ans), et docteur en sciences naturelles, diplômé de la faculté de Clermont le 19 juin 1940 (à 31 ans). Il a exercé son métier de médecin sur la commune de Jouet-sur-l'Aubois. Il mène des recherches paléontologiques sur le site de Menat[note 1],[rs 1].
-Paléontologue
-Il publie plusieurs articles de 1937 à 1940[1],[2],[3].
-Il est l'auteur de plusieurs taxons dont trois rendent hommage à Nicolas Théobald : en 1935, avec Cicadellites theobaldi[rs 2] et Aeshna theobaldi[4],[rs 3], et, en 1940, avec Limonia theobaldi[rs 4],[rs 5]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Paléontologue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie plusieurs articles de 1937 à 1940.
+Il est l'auteur de plusieurs taxons dont trois rendent hommage à Nicolas Théobald : en 1935, avec Cicadellites theobaldi[rs 2] et Aeshna theobaldi,[rs 3], et, en 1940, avec Limonia theobaldi[rs 4],[rs 5]. 
 Les taxons (informatisés) de sa collection personnelle déposée au muséum national d'histoire naturelle s'élève à environ 900 taxons...[rs 6]. 
-Menatothérium
-« En 1940, il découvre un fossile qu'il pensait être un ancêtre de l'homme, le Menatothérium »[note 2][rs 8]. Ce genre taxon est aujourd'hui considéré comme un synonyme de Plesiadapis, mais l'espèce †Plesiadapis insignis Piton 1940 lui est toujours attribuée[rs 9]
-Seconde Guerre mondiale
-Il fait partie de la résistance française. « Sur l’ordre de l’odieux Paoli le Docteur Piton et son épouse furent arrêtés le 30 avril 1944 et envoyés à Bourges, où ils furent torturés, puis à Compiègne, puis à Dachau le 18 juin 1944. Il y décéda le 14 février 1945, à l’âge de 36 ans. »[rs 1].
-Hommages
-Il a reçu à titre posthume, la médaille des épidémies, la Légion d'honneur, les remerciements de la Royal Air Force et du gouvernement des États-Unis d'Amérique, pour avoir soigné et aidé au rapatriement des parachutistes alliés[rs 1].
-Nicolas Théobald, avec lequel il a cosigné plusieurs écrits[2],[3], lui a rendu hommage par l'intermédiaire de trois taxons : Plegaderus pitoni, Formica pitoni, Cryptocephalus pitoni[rs 5], soit autant que pour la famille Mieg[note 3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paléontologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Menatothérium</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« En 1940, il découvre un fossile qu'il pensait être un ancêtre de l'homme, le Menatothérium »[note 2][rs 8]. Ce genre taxon est aujourd'hui considéré comme un synonyme de Plesiadapis, mais l'espèce †Plesiadapis insignis Piton 1940 lui est toujours attribuée[rs 9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait partie de la résistance française. « Sur l’ordre de l’odieux Paoli le Docteur Piton et son épouse furent arrêtés le 30 avril 1944 et envoyés à Bourges, où ils furent torturés, puis à Compiègne, puis à Dachau le 18 juin 1944. Il y décéda le 14 février 1945, à l’âge de 36 ans. »[rs 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a reçu à titre posthume, la médaille des épidémies, la Légion d'honneur, les remerciements de la Royal Air Force et du gouvernement des États-Unis d'Amérique, pour avoir soigné et aidé au rapatriement des parachutistes alliés[rs 1].
+Nicolas Théobald, avec lequel il a cosigné plusieurs écrits lui a rendu hommage par l'intermédiaire de trois taxons : Plegaderus pitoni, Formica pitoni, Cryptocephalus pitoni[rs 5], soit autant que pour la famille Mieg[note 3].
 Autres hommages taxonomiques : †Aphrophora pitoni Dmitriev 2020[rs 11], Donacia pitoni Goecke, 1959[rs 12], synonyme de Donacia antiqua Piton 1935
 Sinon pour les espèces concernées, consulter la liste générée automatiquement.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Louis_%C3%89mile_Piton</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Articles
-L. Piton, « Insectes fossiles des cinérites et randamites d'Auvergne. », inconnu, Clermont-Ferrand,‎ 1933.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L. Piton, « Insectes fossiles des cinérites et randamites d'Auvergne. », inconnu, Clermont-Ferrand,‎ 1933.
 L. Piton, « Monographie de la perche tertiaire des schistes de Ménat. », Revue scientifique du Bourbonnais et du Centre de la France, N° 3-4,‎ octobre-décembre 1933.
 L. Piton, « Note sur le Stampien de Royat. », Bull. Soc. Hist. Nat. d'Auvergne, Clermont-Ferrand,‎ 1934(22) page 39.
 L. Piton, « Les Poissons fossiles de Chadrat (P. de D). », Revue scientifique du Bourbonnais,‎ 1934(3-4).
@@ -567,9 +730,43 @@
 L. Piton, « Les Orthoptères tertiaires d'Auvergne », Miscellanea Entomologica, XXXVII, 8,‎ 1936, p. 77-79.
 L. Piton, « Les Hémiptères Homoptères de l'Eocène de Ménat (Puy-de-Dôme). », Miscellanea Entomologica, XXXVII, 10,‎ 1936, p. 93-94.
 L. Piton, « Note complémentaire sur Menatacridium eocenicum Piton. », Miscellanea Entomologica, Vol. 38, N° 1, Fig. 3,‎ 1937.
-L. Piton, « Paléontologie du Gisement Éocéne de Menat (Puy-de-Dôme). (Flore et Faune). », Mem. Soc. Hist. Nat. d’Auvergne, Clermont-Ferrand, vol. 1,‎ 1940 (BNF 32533074, lire en ligne).
-Articles en commun
-Louis E. Piton et Nicolas Théobald, « Les lignites et schistes bitumineux de Menat (Puy-de-Dôme). II: Les insectes fossiles de Menat », Revue des Sciences Naturelles d'Auvergne, vol. 3(2),‎ 1937
+L. Piton, « Paléontologie du Gisement Éocéne de Menat (Puy-de-Dôme). (Flore et Faune). », Mem. Soc. Hist. Nat. d’Auvergne, Clermont-Ferrand, vol. 1,‎ 1940 (BNF 32533074, lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis_Émile_Piton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_%C3%89mile_Piton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Articles en commun</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Louis E. Piton et Nicolas Théobald, « Les lignites et schistes bitumineux de Menat (Puy-de-Dôme). II: Les insectes fossiles de Menat », Revue des Sciences Naturelles d'Auvergne, vol. 3(2),‎ 1937
 Louis E. Piton et Nicolas Théobald, « Poissons, crustacés et insectes fossiles de l'Oligocène du Puy-de-Mur (Auvergne). », Mémoires de la Société des Sciences de Nancy,‎ 1939, p. 11-47, 28 fig., 2 pl. (ISSN 0369-2183)</t>
         </is>
       </c>
